--- a/data/pca/factorExposure/factorExposure_2009-12-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003570865068258398</v>
+        <v>0.01687115939482159</v>
       </c>
       <c r="C2">
-        <v>-0.009041741940077723</v>
+        <v>-0.001221625347973618</v>
       </c>
       <c r="D2">
-        <v>-0.00142610414138017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006139285711900869</v>
+      </c>
+      <c r="E2">
+        <v>0.0003703874936027633</v>
+      </c>
+      <c r="F2">
+        <v>0.01142984340383263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02990854975001197</v>
+        <v>0.09374997549408051</v>
       </c>
       <c r="C4">
-        <v>-0.1219922959982037</v>
+        <v>-0.01572457324088935</v>
       </c>
       <c r="D4">
-        <v>-0.01755718342809633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08413057680255112</v>
+      </c>
+      <c r="E4">
+        <v>-0.02854010869196999</v>
+      </c>
+      <c r="F4">
+        <v>-0.03084613411342339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03714911553049838</v>
+        <v>0.1572484894539137</v>
       </c>
       <c r="C6">
-        <v>-0.1110570429338152</v>
+        <v>-0.02546633721155339</v>
       </c>
       <c r="D6">
-        <v>0.03505655791371391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02326060580244457</v>
+      </c>
+      <c r="E6">
+        <v>-0.008551867540036376</v>
+      </c>
+      <c r="F6">
+        <v>-0.04647091242681442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01004377898088013</v>
+        <v>0.06264378382198327</v>
       </c>
       <c r="C7">
-        <v>-0.08143847043765375</v>
+        <v>0.001036108232169212</v>
       </c>
       <c r="D7">
-        <v>0.00121353472843084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05136306493542944</v>
+      </c>
+      <c r="E7">
+        <v>-0.009648928823314725</v>
+      </c>
+      <c r="F7">
+        <v>-0.04663028171326619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002835800152420492</v>
+        <v>0.05710859654840601</v>
       </c>
       <c r="C8">
-        <v>-0.06503415235180672</v>
+        <v>0.01337633773898563</v>
       </c>
       <c r="D8">
-        <v>0.02136500252155898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0334422764388374</v>
+      </c>
+      <c r="E8">
+        <v>-0.01751577355250855</v>
+      </c>
+      <c r="F8">
+        <v>0.02825397417600919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02514688827629588</v>
+        <v>0.07127507033978586</v>
       </c>
       <c r="C9">
-        <v>-0.1005754679748454</v>
+        <v>-0.01140038893811276</v>
       </c>
       <c r="D9">
-        <v>-0.02274926757028253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08606283905105507</v>
+      </c>
+      <c r="E9">
+        <v>-0.0231800116138233</v>
+      </c>
+      <c r="F9">
+        <v>-0.04731760729234665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01148560045173074</v>
+        <v>0.09629818731994257</v>
       </c>
       <c r="C10">
-        <v>-0.02344152386906857</v>
+        <v>-0.02005024720863322</v>
       </c>
       <c r="D10">
-        <v>0.1356514297585465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1711313486735462</v>
+      </c>
+      <c r="E10">
+        <v>0.03675982134709899</v>
+      </c>
+      <c r="F10">
+        <v>0.05344437137145511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02933548325430648</v>
+        <v>0.08793514472318442</v>
       </c>
       <c r="C11">
-        <v>-0.1051834376943453</v>
+        <v>-0.01101538407095174</v>
       </c>
       <c r="D11">
-        <v>-0.03305225699617111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1160035575518917</v>
+      </c>
+      <c r="E11">
+        <v>-0.04612194017277722</v>
+      </c>
+      <c r="F11">
+        <v>-0.0215995930724603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02673007756025866</v>
+        <v>0.09209890768402135</v>
       </c>
       <c r="C12">
-        <v>-0.1152709422737904</v>
+        <v>-0.008134293541538348</v>
       </c>
       <c r="D12">
-        <v>-0.03084289053066949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1312719141779316</v>
+      </c>
+      <c r="E12">
+        <v>-0.04771792324983231</v>
+      </c>
+      <c r="F12">
+        <v>-0.02563766642807945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009015326290914488</v>
+        <v>0.04227037420659862</v>
       </c>
       <c r="C13">
-        <v>-0.04281393233266299</v>
+        <v>-0.003495926514630273</v>
       </c>
       <c r="D13">
-        <v>-0.02565212999905967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05117444917200133</v>
+      </c>
+      <c r="E13">
+        <v>0.008553441334039971</v>
+      </c>
+      <c r="F13">
+        <v>-0.002501487010872073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01601114432721399</v>
+        <v>0.02301698722885458</v>
       </c>
       <c r="C14">
-        <v>-0.0225502326331973</v>
+        <v>-0.0139218460166626</v>
       </c>
       <c r="D14">
-        <v>0.004719551582896933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03322814290117394</v>
+      </c>
+      <c r="E14">
+        <v>-0.01723759610522351</v>
+      </c>
+      <c r="F14">
+        <v>-0.01444617866147926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01042874738112048</v>
+        <v>0.03289028023448413</v>
       </c>
       <c r="C15">
-        <v>-0.02677221617362893</v>
+        <v>-0.004976331538176397</v>
       </c>
       <c r="D15">
-        <v>-0.01283787145109685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04502083796650153</v>
+      </c>
+      <c r="E15">
+        <v>-0.006292787775880035</v>
+      </c>
+      <c r="F15">
+        <v>-0.02295534489483157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01835709356387411</v>
+        <v>0.07420037703620855</v>
       </c>
       <c r="C16">
-        <v>-0.1096312456851631</v>
+        <v>-0.002122877278237232</v>
       </c>
       <c r="D16">
-        <v>-0.01269311162744804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1254428284162359</v>
+      </c>
+      <c r="E16">
+        <v>-0.06170713897527424</v>
+      </c>
+      <c r="F16">
+        <v>-0.02445821680267984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0316047874538549</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003361721806852121</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0197842608993631</v>
+      </c>
+      <c r="E18">
+        <v>0.00725862993392599</v>
+      </c>
+      <c r="F18">
+        <v>0.003725366569436071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01175674505291549</v>
+        <v>0.06102063031757483</v>
       </c>
       <c r="C20">
-        <v>-0.0647949570748482</v>
+        <v>-0.0004782724826169923</v>
       </c>
       <c r="D20">
-        <v>-0.0001161553769392081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07686725149221052</v>
+      </c>
+      <c r="E20">
+        <v>-0.05545248379957056</v>
+      </c>
+      <c r="F20">
+        <v>-0.02321429258547632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01263550486666049</v>
+        <v>0.04041978240486421</v>
       </c>
       <c r="C21">
-        <v>-0.02332160951840731</v>
+        <v>-0.006561080503331032</v>
       </c>
       <c r="D21">
-        <v>0.0006095300109303962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03663808164492077</v>
+      </c>
+      <c r="E21">
+        <v>0.005761542414649755</v>
+      </c>
+      <c r="F21">
+        <v>0.02402010440730684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004873650626880794</v>
+        <v>0.04395089909190948</v>
       </c>
       <c r="C22">
-        <v>-0.02734266460325903</v>
+        <v>-0.001061286946896471</v>
       </c>
       <c r="D22">
-        <v>0.04162296401887521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002834680822701598</v>
+      </c>
+      <c r="E22">
+        <v>-0.0294911812098272</v>
+      </c>
+      <c r="F22">
+        <v>0.03459833337675782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004861607977907707</v>
+        <v>0.04393648253746898</v>
       </c>
       <c r="C23">
-        <v>-0.02727514037623437</v>
+        <v>-0.001057018373715233</v>
       </c>
       <c r="D23">
-        <v>0.04169684704855701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002839440124280307</v>
+      </c>
+      <c r="E23">
+        <v>-0.02969282075433276</v>
+      </c>
+      <c r="F23">
+        <v>0.0345611338875904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01883566064048084</v>
+        <v>0.08026815350355616</v>
       </c>
       <c r="C24">
-        <v>-0.1111245243925092</v>
+        <v>-0.002677279413041218</v>
       </c>
       <c r="D24">
-        <v>-0.02369657021577887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200706519187325</v>
+      </c>
+      <c r="E24">
+        <v>-0.04911164382562697</v>
+      </c>
+      <c r="F24">
+        <v>-0.02578295986335594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02427641683588148</v>
+        <v>0.08524809292714954</v>
       </c>
       <c r="C25">
-        <v>-0.1118574668744444</v>
+        <v>-0.00489034834040057</v>
       </c>
       <c r="D25">
-        <v>-0.01972894926726601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1084305454508385</v>
+      </c>
+      <c r="E25">
+        <v>-0.03239377094118474</v>
+      </c>
+      <c r="F25">
+        <v>-0.0265514761248518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02387079451957339</v>
+        <v>0.05757191202740559</v>
       </c>
       <c r="C26">
-        <v>-0.0484013687409828</v>
+        <v>-0.01450265862365677</v>
       </c>
       <c r="D26">
-        <v>0.01998871187783845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04029889787213792</v>
+      </c>
+      <c r="E26">
+        <v>-0.02787411821668571</v>
+      </c>
+      <c r="F26">
+        <v>0.009628181419763076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.004071273279796859</v>
+        <v>0.1407215629832802</v>
       </c>
       <c r="C28">
-        <v>-0.02770470301634585</v>
+        <v>-0.01916172021432035</v>
       </c>
       <c r="D28">
-        <v>0.1942795063581698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2634223366995161</v>
+      </c>
+      <c r="E28">
+        <v>0.06825408293792537</v>
+      </c>
+      <c r="F28">
+        <v>-0.009437597087151235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01284431043535728</v>
+        <v>0.02772783821793228</v>
       </c>
       <c r="C29">
-        <v>-0.028144103902444</v>
+        <v>-0.008170272780868139</v>
       </c>
       <c r="D29">
-        <v>0.0114409916757966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03257017678953199</v>
+      </c>
+      <c r="E29">
+        <v>-0.01136031605573972</v>
+      </c>
+      <c r="F29">
+        <v>0.01024101977817426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01509292276179454</v>
+        <v>0.06155677503412627</v>
       </c>
       <c r="C30">
-        <v>-0.1293399916343432</v>
+        <v>-0.003985351773153075</v>
       </c>
       <c r="D30">
-        <v>-0.01842198750472918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08750539512064139</v>
+      </c>
+      <c r="E30">
+        <v>-0.01910554142247976</v>
+      </c>
+      <c r="F30">
+        <v>-0.08325970420103397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0217942858214</v>
+        <v>0.04996194032967657</v>
       </c>
       <c r="C31">
-        <v>-0.03690739806197805</v>
+        <v>-0.01528006381343263</v>
       </c>
       <c r="D31">
-        <v>0.004810066198281181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02486052094175788</v>
+      </c>
+      <c r="E31">
+        <v>-0.02753138618895072</v>
+      </c>
+      <c r="F31">
+        <v>0.002687043851685891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.007398412011726427</v>
+        <v>0.05004482177657908</v>
       </c>
       <c r="C32">
-        <v>-0.06047977156631155</v>
+        <v>0.001620948698696736</v>
       </c>
       <c r="D32">
-        <v>0.03049948863146632</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03597031673343887</v>
+      </c>
+      <c r="E32">
+        <v>-0.03091828857848574</v>
+      </c>
+      <c r="F32">
+        <v>-0.002422311796149516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02234066900584653</v>
+        <v>0.08942283991831763</v>
       </c>
       <c r="C33">
-        <v>-0.1142811274821864</v>
+        <v>-0.008182771860164282</v>
       </c>
       <c r="D33">
-        <v>-0.0215104362317823</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09839309588859133</v>
+      </c>
+      <c r="E33">
+        <v>-0.04410500098260382</v>
+      </c>
+      <c r="F33">
+        <v>-0.03569042103155905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02593002611316498</v>
+        <v>0.06845586498305387</v>
       </c>
       <c r="C34">
-        <v>-0.09550563482154216</v>
+        <v>-0.01114377908192958</v>
       </c>
       <c r="D34">
-        <v>-0.01395683276530985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065846998632503</v>
+      </c>
+      <c r="E34">
+        <v>-0.03466560239191018</v>
+      </c>
+      <c r="F34">
+        <v>-0.03368132650443182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003917319220245623</v>
+        <v>0.0241453005447062</v>
       </c>
       <c r="C35">
-        <v>-0.01374138619614478</v>
+        <v>-0.002406767934633753</v>
       </c>
       <c r="D35">
-        <v>-0.001172100520607923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0118728109367112</v>
+      </c>
+      <c r="E35">
+        <v>-0.0117973478113152</v>
+      </c>
+      <c r="F35">
+        <v>-0.001097856832503277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01082100814819493</v>
+        <v>0.02758576104147232</v>
       </c>
       <c r="C36">
-        <v>-0.02583790567119282</v>
+        <v>-0.007211921464425604</v>
       </c>
       <c r="D36">
-        <v>-0.00930718481545232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03932391641023471</v>
+      </c>
+      <c r="E36">
+        <v>-0.01603146534192559</v>
+      </c>
+      <c r="F36">
+        <v>-0.01534764886375902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004226563535304134</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3.79375357440911e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004531568517400719</v>
+      </c>
+      <c r="E37">
+        <v>0.000413503704541193</v>
+      </c>
+      <c r="F37">
+        <v>-0.0007483329786030197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005667584034541161</v>
+        <v>0.001342397061795468</v>
       </c>
       <c r="C38">
-        <v>-0.004004628100014279</v>
+        <v>-0.000208001281174986</v>
       </c>
       <c r="D38">
-        <v>0.00185668043326414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004731789525704734</v>
+      </c>
+      <c r="E38">
+        <v>-0.0008298509769749724</v>
+      </c>
+      <c r="F38">
+        <v>0.0006036555872932304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04170596403341838</v>
+        <v>0.1057106832967662</v>
       </c>
       <c r="C39">
-        <v>-0.1665785499413825</v>
+        <v>-0.01642813489593536</v>
       </c>
       <c r="D39">
-        <v>-0.04677854039146297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538550157148701</v>
+      </c>
+      <c r="E39">
+        <v>-0.0592163491675735</v>
+      </c>
+      <c r="F39">
+        <v>-0.02803139835181096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01115017293854902</v>
+        <v>0.04112142137313366</v>
       </c>
       <c r="C40">
-        <v>-0.01380148767597178</v>
+        <v>-0.007069753008210291</v>
       </c>
       <c r="D40">
-        <v>0.00904427086080763</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03183678873102622</v>
+      </c>
+      <c r="E40">
+        <v>-0.003071703437743272</v>
+      </c>
+      <c r="F40">
+        <v>0.01573145483123541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01128837950032953</v>
+        <v>0.0275418961148112</v>
       </c>
       <c r="C41">
-        <v>-0.01965007644474158</v>
+        <v>-0.00673332625790055</v>
       </c>
       <c r="D41">
-        <v>0.01671997327839201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.010577709829695</v>
+      </c>
+      <c r="E41">
+        <v>-0.01260810132564887</v>
+      </c>
+      <c r="F41">
+        <v>0.006825729533771452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01318159926311725</v>
+        <v>0.04048883628190683</v>
       </c>
       <c r="C43">
-        <v>-0.02716727415157647</v>
+        <v>-0.006690155818447751</v>
       </c>
       <c r="D43">
-        <v>0.01172958463442374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02083361512770562</v>
+      </c>
+      <c r="E43">
+        <v>-0.02523129131943255</v>
+      </c>
+      <c r="F43">
+        <v>0.0126706421633755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03114109570494916</v>
+        <v>0.08044914334651368</v>
       </c>
       <c r="C44">
-        <v>-0.128787414448629</v>
+        <v>-0.0202702140079472</v>
       </c>
       <c r="D44">
-        <v>-0.003289788588427994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09875622860422137</v>
+      </c>
+      <c r="E44">
+        <v>-0.066650872914435</v>
+      </c>
+      <c r="F44">
+        <v>-0.1572970941953586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005449647179376023</v>
+        <v>0.02347532430914528</v>
       </c>
       <c r="C46">
-        <v>-0.005784702651218465</v>
+        <v>-0.003362313419331</v>
       </c>
       <c r="D46">
-        <v>0.01895446979696496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01367585865062175</v>
+      </c>
+      <c r="E46">
+        <v>-0.02266779398666694</v>
+      </c>
+      <c r="F46">
+        <v>0.004434824242539753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01023291577905272</v>
+        <v>0.05137659409326269</v>
       </c>
       <c r="C47">
-        <v>-0.03155726142565382</v>
+        <v>-0.00351837026961406</v>
       </c>
       <c r="D47">
-        <v>0.02720603820578736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01383124515114104</v>
+      </c>
+      <c r="E47">
+        <v>-0.02370284528305277</v>
+      </c>
+      <c r="F47">
+        <v>0.03373786008001977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01184429338475015</v>
+        <v>0.04968136314624915</v>
       </c>
       <c r="C48">
-        <v>-0.04749404691242797</v>
+        <v>-0.002421417216304782</v>
       </c>
       <c r="D48">
-        <v>-0.01147990879430231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05008736971518909</v>
+      </c>
+      <c r="E48">
+        <v>0.006275886204924105</v>
+      </c>
+      <c r="F48">
+        <v>-0.009404533283193536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03639586390436004</v>
+        <v>0.1994720121702729</v>
       </c>
       <c r="C49">
-        <v>-0.2165560198963145</v>
+        <v>-0.01857537753981597</v>
       </c>
       <c r="D49">
-        <v>0.06795086301660402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008046815441557258</v>
+      </c>
+      <c r="E49">
+        <v>-0.03148066580793021</v>
+      </c>
+      <c r="F49">
+        <v>-0.03840300235675508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01842697486695077</v>
+        <v>0.05074220698111871</v>
       </c>
       <c r="C50">
-        <v>-0.04061171301250946</v>
+        <v>-0.01130876951791213</v>
       </c>
       <c r="D50">
-        <v>0.01195714106814751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0231868205771367</v>
+      </c>
+      <c r="E50">
+        <v>-0.02931908079504694</v>
+      </c>
+      <c r="F50">
+        <v>-0.008630720949348556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004527580322647888</v>
+        <v>0.0009177538113584151</v>
       </c>
       <c r="C51">
-        <v>-0.002240888850405152</v>
+        <v>-0.0002584795971550314</v>
       </c>
       <c r="D51">
-        <v>0.003225198171067811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0006396333669394914</v>
+      </c>
+      <c r="E51">
+        <v>-7.004164635380232e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.002902190956047061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0299151993008494</v>
+        <v>0.1461056352662953</v>
       </c>
       <c r="C52">
-        <v>-0.1520504048849872</v>
+        <v>-0.01545134187412781</v>
       </c>
       <c r="D52">
-        <v>-0.01910187944874327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0458145970148128</v>
+      </c>
+      <c r="E52">
+        <v>-0.02060063348055684</v>
+      </c>
+      <c r="F52">
+        <v>-0.04074420660679974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03106971731103117</v>
+        <v>0.172584811429094</v>
       </c>
       <c r="C53">
-        <v>-0.1738169960265811</v>
+        <v>-0.01880005405623823</v>
       </c>
       <c r="D53">
-        <v>0.01604177700798021</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005477460786857964</v>
+      </c>
+      <c r="E53">
+        <v>-0.03113943892401154</v>
+      </c>
+      <c r="F53">
+        <v>-0.0724972496344345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01578807019442646</v>
+        <v>0.02225369251396645</v>
       </c>
       <c r="C54">
-        <v>-0.03870679580537504</v>
+        <v>-0.01258966200783425</v>
       </c>
       <c r="D54">
-        <v>0.01232978109416022</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03386522443472846</v>
+      </c>
+      <c r="E54">
+        <v>-0.01840638488868963</v>
+      </c>
+      <c r="F54">
+        <v>0.003585421947686588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02412928633237403</v>
+        <v>0.1140610501220008</v>
       </c>
       <c r="C55">
-        <v>-0.08657195231704601</v>
+        <v>-0.01652283672805618</v>
       </c>
       <c r="D55">
-        <v>-0.001665319421007659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009171938341806511</v>
+      </c>
+      <c r="E55">
+        <v>-0.02777924094100031</v>
+      </c>
+      <c r="F55">
+        <v>-0.04658325916512397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03208780789993843</v>
+        <v>0.1770404324111059</v>
       </c>
       <c r="C56">
-        <v>-0.1600528865319736</v>
+        <v>-0.01617384125013102</v>
       </c>
       <c r="D56">
-        <v>0.02744664011545387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001254761275712309</v>
+      </c>
+      <c r="E56">
+        <v>-0.03561421588391592</v>
+      </c>
+      <c r="F56">
+        <v>-0.05077382023618348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01250693297593921</v>
+        <v>0.04663985394498253</v>
       </c>
       <c r="C58">
-        <v>-0.04951205459942383</v>
+        <v>-0.0009273544402055323</v>
       </c>
       <c r="D58">
-        <v>-0.007419915330426769</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06718983528344237</v>
+      </c>
+      <c r="E58">
+        <v>-0.02774335578762179</v>
+      </c>
+      <c r="F58">
+        <v>0.0365356169295504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01190559325024301</v>
+        <v>0.1671520925213102</v>
       </c>
       <c r="C59">
-        <v>-0.08135330055414314</v>
+        <v>-0.01944504217944849</v>
       </c>
       <c r="D59">
-        <v>0.2096177515584094</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2174769238066769</v>
+      </c>
+      <c r="E59">
+        <v>0.04504016926303488</v>
+      </c>
+      <c r="F59">
+        <v>0.03526175225629061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02479387593346183</v>
+        <v>0.231135531875206</v>
       </c>
       <c r="C60">
-        <v>-0.2735688776099717</v>
+        <v>0.002712198522211941</v>
       </c>
       <c r="D60">
-        <v>-0.005198902669349958</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04231063204930414</v>
+      </c>
+      <c r="E60">
+        <v>-0.01124347175771195</v>
+      </c>
+      <c r="F60">
+        <v>0.00694553080274154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02938996733784536</v>
+        <v>0.08236747611771647</v>
       </c>
       <c r="C61">
-        <v>-0.1238562161598439</v>
+        <v>-0.01233227150383278</v>
       </c>
       <c r="D61">
-        <v>-0.01665310988785446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1157656442641293</v>
+      </c>
+      <c r="E61">
+        <v>-0.03873473914558915</v>
+      </c>
+      <c r="F61">
+        <v>-0.01110077131238161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03404505906482546</v>
+        <v>0.1706006820939007</v>
       </c>
       <c r="C62">
-        <v>-0.1624644198145782</v>
+        <v>-0.01951732619407691</v>
       </c>
       <c r="D62">
-        <v>0.02292469854797868</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007274340376664255</v>
+      </c>
+      <c r="E62">
+        <v>-0.03496066179688956</v>
+      </c>
+      <c r="F62">
+        <v>-0.03433975117692312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01208345516783922</v>
+        <v>0.04557225866307505</v>
       </c>
       <c r="C63">
-        <v>-0.05373604098077</v>
+        <v>-0.002170096841497456</v>
       </c>
       <c r="D63">
-        <v>-0.003188197797265891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05773207858005842</v>
+      </c>
+      <c r="E63">
+        <v>-0.02118119237769431</v>
+      </c>
+      <c r="F63">
+        <v>-0.005943494556621417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02320289019431953</v>
+        <v>0.1109381351754438</v>
       </c>
       <c r="C64">
-        <v>-0.09545246606011522</v>
+        <v>-0.01146581527169842</v>
       </c>
       <c r="D64">
-        <v>0.007589706994763601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04186288693267378</v>
+      </c>
+      <c r="E64">
+        <v>-0.02385466957043588</v>
+      </c>
+      <c r="F64">
+        <v>-0.02561661063044465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03765585711317066</v>
+        <v>0.1480391954968339</v>
       </c>
       <c r="C65">
-        <v>-0.1052375900652469</v>
+        <v>-0.03262041216715617</v>
       </c>
       <c r="D65">
-        <v>0.01579741279246777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04274731897653392</v>
+      </c>
+      <c r="E65">
+        <v>-0.002668663655434628</v>
+      </c>
+      <c r="F65">
+        <v>-0.03989253983879282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04040869239315858</v>
+        <v>0.1253075970042101</v>
       </c>
       <c r="C66">
-        <v>-0.1972007474994608</v>
+        <v>-0.01455124291747454</v>
       </c>
       <c r="D66">
-        <v>-0.02958165023195389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1421217728917314</v>
+      </c>
+      <c r="E66">
+        <v>-0.0667290535703132</v>
+      </c>
+      <c r="F66">
+        <v>-0.0306121225099612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01439834408292848</v>
+        <v>0.06082293744954968</v>
       </c>
       <c r="C67">
-        <v>-0.07558659607566764</v>
+        <v>-0.003355033722881422</v>
       </c>
       <c r="D67">
-        <v>-0.002052087084796518</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05596207220097994</v>
+      </c>
+      <c r="E67">
+        <v>-0.01757517268113416</v>
+      </c>
+      <c r="F67">
+        <v>0.03392997224031435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01500522179587581</v>
+        <v>0.1162813056478004</v>
       </c>
       <c r="C68">
-        <v>-0.01789972111771803</v>
+        <v>-0.02959063910731995</v>
       </c>
       <c r="D68">
-        <v>0.1836437266523635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2601218510036024</v>
+      </c>
+      <c r="E68">
+        <v>0.08676528510643243</v>
+      </c>
+      <c r="F68">
+        <v>-0.005691899108852243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005586322714899536</v>
+        <v>0.03977337591972184</v>
       </c>
       <c r="C69">
-        <v>-0.03295640480317232</v>
+        <v>-0.001385628633667398</v>
       </c>
       <c r="D69">
-        <v>0.005327027960474958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007274515920986878</v>
+      </c>
+      <c r="E69">
+        <v>-0.023096001340969</v>
+      </c>
+      <c r="F69">
+        <v>0.001278257723372528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.00103401767477378</v>
+        <v>0.06587985347832157</v>
       </c>
       <c r="C70">
-        <v>-0.03525459712601621</v>
+        <v>0.02797200588751463</v>
       </c>
       <c r="D70">
-        <v>0.003583730527273458</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0252848923567494</v>
+      </c>
+      <c r="E70">
+        <v>0.03989649853813343</v>
+      </c>
+      <c r="F70">
+        <v>0.1864077997101656</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01863363263100012</v>
+        <v>0.1365037179278446</v>
       </c>
       <c r="C71">
-        <v>-0.02417308432539375</v>
+        <v>-0.03426838422666062</v>
       </c>
       <c r="D71">
-        <v>0.1952341307354416</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2738531287095975</v>
+      </c>
+      <c r="E71">
+        <v>0.09664059932226672</v>
+      </c>
+      <c r="F71">
+        <v>-0.01251310445593977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03538878703442898</v>
+        <v>0.1420165303498119</v>
       </c>
       <c r="C72">
-        <v>-0.1189516272654929</v>
+        <v>-0.02580746823999807</v>
       </c>
       <c r="D72">
-        <v>0.03912218098369248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0008644065210428295</v>
+      </c>
+      <c r="E72">
+        <v>-0.03864726371278531</v>
+      </c>
+      <c r="F72">
+        <v>-0.03516432815798177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.032663873838229</v>
+        <v>0.2007880844143979</v>
       </c>
       <c r="C73">
-        <v>-0.2181826595751088</v>
+        <v>-0.01261639841090236</v>
       </c>
       <c r="D73">
-        <v>0.06319144528747289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01706545805542623</v>
+      </c>
+      <c r="E73">
+        <v>-0.06461590812588999</v>
+      </c>
+      <c r="F73">
+        <v>-0.03830720233425772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01935702672930029</v>
+        <v>0.09498690377827852</v>
       </c>
       <c r="C74">
-        <v>-0.1065501624720174</v>
+        <v>-0.01319005427382102</v>
       </c>
       <c r="D74">
-        <v>0.02220581227870941</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01777365286276026</v>
+      </c>
+      <c r="E74">
+        <v>-0.04450642966580322</v>
+      </c>
+      <c r="F74">
+        <v>-0.05607582393753706</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04055565443267144</v>
+        <v>0.1283159222893141</v>
       </c>
       <c r="C75">
-        <v>-0.133752861934176</v>
+        <v>-0.02770136571936107</v>
       </c>
       <c r="D75">
-        <v>0.03264492818821044</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03047272103940927</v>
+      </c>
+      <c r="E75">
+        <v>-0.05810370395845605</v>
+      </c>
+      <c r="F75">
+        <v>-0.01754577611209456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.000304388136707519</v>
+        <v>0.0008602369483904249</v>
       </c>
       <c r="C76">
-        <v>-0.002701749047955988</v>
+        <v>-0.0002371412330397761</v>
       </c>
       <c r="D76">
-        <v>0.003412837052779813</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0007028772936793142</v>
+      </c>
+      <c r="E76">
+        <v>-0.000245114163037928</v>
+      </c>
+      <c r="F76">
+        <v>-0.0008523569862319911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02425587058323011</v>
+        <v>0.08491302721076534</v>
       </c>
       <c r="C77">
-        <v>-0.1006367018687349</v>
+        <v>-0.008241107615233076</v>
       </c>
       <c r="D77">
-        <v>-0.05361724922580541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.113050384467767</v>
+      </c>
+      <c r="E77">
+        <v>-0.03842734749277468</v>
+      </c>
+      <c r="F77">
+        <v>-0.03063896152202166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05345187035491832</v>
+        <v>0.09973217862183849</v>
       </c>
       <c r="C78">
-        <v>-0.1434416524624288</v>
+        <v>-0.0395185334278359</v>
       </c>
       <c r="D78">
-        <v>0.02146189884001039</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1169654317705799</v>
+      </c>
+      <c r="E78">
+        <v>-0.07492903474903663</v>
+      </c>
+      <c r="F78">
+        <v>-0.04538601769188628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03572765941569255</v>
+        <v>0.1647055384502881</v>
       </c>
       <c r="C79">
-        <v>-0.1439404435562738</v>
+        <v>-0.02227095192338666</v>
       </c>
       <c r="D79">
-        <v>0.03517190681342308</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01573766663447032</v>
+      </c>
+      <c r="E79">
+        <v>-0.04687800445047359</v>
+      </c>
+      <c r="F79">
+        <v>-0.01103106533296665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.007914545030155141</v>
+        <v>0.08243009067866616</v>
       </c>
       <c r="C80">
-        <v>-0.07884465781996221</v>
+        <v>0.0007874790936226908</v>
       </c>
       <c r="D80">
-        <v>0.006590189265241203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05729752261367981</v>
+      </c>
+      <c r="E80">
+        <v>-0.03730881048764358</v>
+      </c>
+      <c r="F80">
+        <v>0.0243303271766107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04248404564731074</v>
+        <v>0.1216073937582553</v>
       </c>
       <c r="C81">
-        <v>-0.138599079595701</v>
+        <v>-0.03161281707391164</v>
       </c>
       <c r="D81">
-        <v>0.01815567278360618</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01602807537525879</v>
+      </c>
+      <c r="E81">
+        <v>-0.05781689985235482</v>
+      </c>
+      <c r="F81">
+        <v>-0.01572591504636745</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.0370734182013471</v>
+        <v>0.16641531315653</v>
       </c>
       <c r="C82">
-        <v>-0.1654294099192882</v>
+        <v>-0.02400118393799849</v>
       </c>
       <c r="D82">
-        <v>0.03184158221261316</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004025092437445506</v>
+      </c>
+      <c r="E82">
+        <v>-0.02790652722389873</v>
+      </c>
+      <c r="F82">
+        <v>-0.07895939986387217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01722049605764146</v>
+        <v>0.06066300307241652</v>
       </c>
       <c r="C83">
-        <v>-0.07588766036432155</v>
+        <v>-0.003141536796152913</v>
       </c>
       <c r="D83">
-        <v>0.0058507845245838</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05040566752318312</v>
+      </c>
+      <c r="E83">
+        <v>-0.004901940584237245</v>
+      </c>
+      <c r="F83">
+        <v>0.03194220350991135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02640452894609636</v>
+        <v>0.05809401825751365</v>
       </c>
       <c r="C84">
-        <v>-0.07656538467519979</v>
+        <v>-0.01103394406062674</v>
       </c>
       <c r="D84">
-        <v>-0.01192514788368359</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06528881520809314</v>
+      </c>
+      <c r="E84">
+        <v>-0.007560440413872181</v>
+      </c>
+      <c r="F84">
+        <v>-0.003397590269190186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.0372852146238629</v>
+        <v>0.1366724568708244</v>
       </c>
       <c r="C85">
-        <v>-0.1184347380869729</v>
+        <v>-0.02753393578332564</v>
       </c>
       <c r="D85">
-        <v>0.01646519129546874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01160594150023588</v>
+      </c>
+      <c r="E85">
+        <v>-0.03890014127970602</v>
+      </c>
+      <c r="F85">
+        <v>-0.04537365931107486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007856873516313414</v>
+        <v>0.09366494778479777</v>
       </c>
       <c r="C86">
-        <v>-0.08864994234125655</v>
+        <v>0.006329902229887476</v>
       </c>
       <c r="D86">
-        <v>0.2247003704809352</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04140537244026719</v>
+      </c>
+      <c r="E86">
+        <v>-0.2107246238959882</v>
+      </c>
+      <c r="F86">
+        <v>0.9085140614996577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03842381085132587</v>
+        <v>0.09708554391958198</v>
       </c>
       <c r="C87">
-        <v>-0.1007747115736533</v>
+        <v>-0.02019141467199832</v>
       </c>
       <c r="D87">
-        <v>-0.0589440065465672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0951685471555552</v>
+      </c>
+      <c r="E87">
+        <v>0.051007930165713</v>
+      </c>
+      <c r="F87">
+        <v>-0.05333476572694053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01283432045956273</v>
+        <v>0.06090217919017769</v>
       </c>
       <c r="C88">
-        <v>-0.05970509720926584</v>
+        <v>-0.002324404756645128</v>
       </c>
       <c r="D88">
-        <v>-0.005778642479126446</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05017231450995575</v>
+      </c>
+      <c r="E88">
+        <v>-0.02484118401383472</v>
+      </c>
+      <c r="F88">
+        <v>-0.01198127143697274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0002188241698145059</v>
+        <v>0.1344376270536434</v>
       </c>
       <c r="C89">
-        <v>-0.04319253729294709</v>
+        <v>-0.01199649658292104</v>
       </c>
       <c r="D89">
-        <v>0.2373938823356252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2520651886582145</v>
+      </c>
+      <c r="E89">
+        <v>0.09106260222373359</v>
+      </c>
+      <c r="F89">
+        <v>0.008165014263587509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01732103607983071</v>
+        <v>0.149717785924441</v>
       </c>
       <c r="C90">
-        <v>-0.02735711313896412</v>
+        <v>-0.03016754918750856</v>
       </c>
       <c r="D90">
-        <v>0.2054231392761016</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681504781889804</v>
+      </c>
+      <c r="E90">
+        <v>0.1116264570288694</v>
+      </c>
+      <c r="F90">
+        <v>0.001528206736580219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02286348089897485</v>
+        <v>0.1200913118084295</v>
       </c>
       <c r="C91">
-        <v>-0.09902363275036398</v>
+        <v>-0.01857136039332461</v>
       </c>
       <c r="D91">
-        <v>0.02514229697876371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01308396648820079</v>
+      </c>
+      <c r="E91">
+        <v>-0.05612208526989072</v>
+      </c>
+      <c r="F91">
+        <v>0.003755487739962214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001785052045744925</v>
+        <v>0.1476158816061032</v>
       </c>
       <c r="C92">
-        <v>-0.03741632248844349</v>
+        <v>-0.02226149954413506</v>
       </c>
       <c r="D92">
-        <v>0.2162359394418716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2919884746981367</v>
+      </c>
+      <c r="E92">
+        <v>0.1003979176708092</v>
+      </c>
+      <c r="F92">
+        <v>0.01345203264475716</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01388458170888701</v>
+        <v>0.1517870170281513</v>
       </c>
       <c r="C93">
-        <v>-0.03857006155629207</v>
+        <v>-0.02613888739070166</v>
       </c>
       <c r="D93">
-        <v>0.2235961464477984</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678753990839939</v>
+      </c>
+      <c r="E93">
+        <v>0.07726889718848239</v>
+      </c>
+      <c r="F93">
+        <v>-0.002866947646954346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04038770304667107</v>
+        <v>0.1309767840716229</v>
       </c>
       <c r="C94">
-        <v>-0.1537790680699677</v>
+        <v>-0.02459344619346567</v>
       </c>
       <c r="D94">
-        <v>0.02546478014287388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04310488761433816</v>
+      </c>
+      <c r="E94">
+        <v>-0.05775758040703885</v>
+      </c>
+      <c r="F94">
+        <v>-0.0355057142431888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02512128238101389</v>
+        <v>0.1275312276935167</v>
       </c>
       <c r="C95">
-        <v>-0.1430395786294529</v>
+        <v>-0.004141701164802796</v>
       </c>
       <c r="D95">
-        <v>-0.01312289347252149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09194508917559004</v>
+      </c>
+      <c r="E95">
+        <v>-0.04685559550315285</v>
+      </c>
+      <c r="F95">
+        <v>0.007208403249973553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9765070339702332</v>
+        <v>0.1051991465472615</v>
       </c>
       <c r="C96">
-        <v>-0.1952550868009044</v>
+        <v>0.9878663013012193</v>
       </c>
       <c r="D96">
-        <v>0.02343977459935262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04259691069335422</v>
+      </c>
+      <c r="E96">
+        <v>-0.05590540353358681</v>
+      </c>
+      <c r="F96">
+        <v>-0.04239708114895648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.004001362913874043</v>
+        <v>0.1931074727499199</v>
       </c>
       <c r="C97">
-        <v>-0.1590948918258403</v>
+        <v>0.007980848334615652</v>
       </c>
       <c r="D97">
-        <v>0.1072186586143446</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01603635787445025</v>
+      </c>
+      <c r="E97">
+        <v>-0.01818907546092614</v>
+      </c>
+      <c r="F97">
+        <v>0.08967821583480345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02485919794144375</v>
+        <v>0.2043931854560996</v>
       </c>
       <c r="C98">
-        <v>-0.2000120584986044</v>
+        <v>-0.007273258101756842</v>
       </c>
       <c r="D98">
-        <v>0.02945918574563403</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01087495553108796</v>
+      </c>
+      <c r="E98">
+        <v>0.08534471766098631</v>
+      </c>
+      <c r="F98">
+        <v>0.09563616506182181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003639295264727689</v>
+        <v>0.05542381659517612</v>
       </c>
       <c r="C99">
-        <v>-0.05804305933789067</v>
+        <v>0.00484366467209673</v>
       </c>
       <c r="D99">
-        <v>0.02138688347978261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03996750022603669</v>
+      </c>
+      <c r="E99">
+        <v>-0.02338286781778335</v>
+      </c>
+      <c r="F99">
+        <v>-0.001335441078179159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.007163866430733185</v>
+        <v>0.1251245691136228</v>
       </c>
       <c r="C100">
-        <v>-0.2012571908067156</v>
+        <v>0.05340015198541303</v>
       </c>
       <c r="D100">
-        <v>-0.7248469491714876</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.345296953096174</v>
+      </c>
+      <c r="E100">
+        <v>0.8892625378508956</v>
+      </c>
+      <c r="F100">
+        <v>0.1386433086056813</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01286082328439269</v>
+        <v>0.02765028313061024</v>
       </c>
       <c r="C101">
-        <v>-0.02815142526531141</v>
+        <v>-0.008178998277223728</v>
       </c>
       <c r="D101">
-        <v>0.01130495260209059</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03227817557689087</v>
+      </c>
+      <c r="E101">
+        <v>-0.01080569980474792</v>
+      </c>
+      <c r="F101">
+        <v>0.01152944962708223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
